--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62346841-1CCB-4EE5-B2C0-99FA5D1C37FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE96B04-63B0-4E42-B7DE-BC70A6AA5CAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="224">
   <si>
     <t>S/N</t>
   </si>
@@ -1388,6 +1388,15 @@
   </si>
   <si>
     <t>Added check for special characters in CreateAccount.jsp</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Jacky</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1666,17 +1675,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1698,6 +1698,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2113,7 +2119,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2136,54 +2142,54 @@
     <col min="16" max="16384" width="27.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:15" s="42" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="J2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="36" t="s">
         <v>170</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -2229,7 +2235,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>71</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="J3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="36">
         <v>43253</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -2275,7 +2281,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>85</v>
       </c>
@@ -2347,7 +2353,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="36" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>85</v>
       </c>
@@ -2377,7 +2383,7 @@
       <c r="J6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="36" t="s">
         <v>179</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -2499,7 +2505,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="60" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -2529,7 +2535,7 @@
       <c r="J10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L10" s="10" t="s">
@@ -2545,7 +2551,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="39">
+      <c r="K11" s="36">
         <v>43277</v>
       </c>
       <c r="L11" s="10" t="s">
@@ -2589,7 +2595,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="39">
+      <c r="K12" s="36">
         <v>43277</v>
       </c>
       <c r="L12" s="10" t="s">
@@ -2633,7 +2639,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>85</v>
       </c>
@@ -2656,14 +2662,14 @@
       <c r="G13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="28" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L13" s="10" t="s">
@@ -2679,7 +2685,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>71</v>
       </c>
@@ -2710,7 +2716,7 @@
       <c r="J14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="36">
         <v>43277</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -2726,7 +2732,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -2750,14 +2756,14 @@
       <c r="G15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="39"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="10" t="s">
         <v>210</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="72" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>85</v>
       </c>
@@ -2846,7 +2852,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="48" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="48" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>85</v>
       </c>
@@ -2876,7 +2882,7 @@
       <c r="J18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L18" s="10" t="s">
@@ -2892,7 +2898,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -2923,7 +2929,7 @@
       <c r="J19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L19" s="10" t="s">
@@ -2939,7 +2945,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>71</v>
       </c>
@@ -2970,7 +2976,7 @@
       <c r="J20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L20" s="10" t="s">
@@ -2986,7 +2992,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
@@ -3017,7 +3023,7 @@
       <c r="J21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="36" t="s">
         <v>173</v>
       </c>
       <c r="L21" s="10" t="s">
@@ -3033,7 +3039,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3071,7 +3077,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3101,7 +3107,7 @@
       <c r="J23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L23" s="10" t="s">
@@ -3117,7 +3123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
@@ -3147,7 +3153,7 @@
       <c r="J24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L24" s="10" t="s">
@@ -3163,7 +3169,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
@@ -3193,7 +3199,7 @@
       <c r="J25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L25" s="10" t="s">
@@ -3209,7 +3215,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>85</v>
       </c>
@@ -3239,7 +3245,7 @@
       <c r="J26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L26" s="10" t="s">
@@ -3255,7 +3261,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>85</v>
       </c>
@@ -3285,7 +3291,7 @@
       <c r="J27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L27" s="10" t="s">
@@ -3691,14 +3697,18 @@
       <c r="J38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M38" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3769,12 +3779,16 @@
       <c r="J40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="10"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M40" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N40" s="10"/>
+      <c r="N40" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3845,12 +3859,16 @@
       <c r="J42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="10"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -3884,14 +3902,18 @@
       <c r="J43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M43" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N43" s="10"/>
+      <c r="N43" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4030,14 +4052,18 @@
       <c r="J47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M47" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N47" s="10"/>
+      <c r="N47" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4106,14 +4132,18 @@
       <c r="J49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M49" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4210,21 +4240,25 @@
       <c r="G52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="38"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="17" t="s">
         <v>146</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="L52" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M52" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N52" s="10"/>
+      <c r="N52" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.2">
@@ -4258,14 +4292,18 @@
       <c r="J53" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M53" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N53" s="10"/>
+      <c r="N53" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4336,12 +4374,16 @@
       <c r="J55" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K55" s="40"/>
-      <c r="L55" s="10"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M55" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N55" s="10"/>
+      <c r="N55" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O55" s="9"/>
     </row>
     <row r="56" spans="1:15" ht="72" x14ac:dyDescent="0.2">
@@ -4375,14 +4417,18 @@
       <c r="J56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M56" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N56" s="10"/>
+      <c r="N56" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O56" s="9"/>
     </row>
     <row r="57" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4451,14 +4497,18 @@
       <c r="J58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="L58" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M58" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N58" s="10"/>
+      <c r="N58" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O58" s="9"/>
     </row>
     <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -4740,14 +4790,18 @@
       <c r="J66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="K66" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M66" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N66" s="10"/>
+      <c r="N66" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O66" s="9"/>
     </row>
     <row r="67" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4780,14 +4834,18 @@
       <c r="J67" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K67" s="39" t="s">
+      <c r="K67" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M67" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N67" s="10"/>
+      <c r="N67" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O67" s="9"/>
     </row>
     <row r="68" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4820,14 +4878,18 @@
       <c r="J68" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M68" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N68" s="10"/>
+      <c r="N68" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O68" s="9"/>
     </row>
     <row r="69" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4860,14 +4922,18 @@
       <c r="J69" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L69" s="10"/>
+      <c r="L69" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M69" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N69" s="10"/>
+      <c r="N69" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O69" s="9"/>
     </row>
     <row r="70" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4900,14 +4966,18 @@
       <c r="J70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L70" s="10"/>
+      <c r="L70" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M70" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N70" s="10"/>
+      <c r="N70" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O70" s="9"/>
     </row>
     <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4927,19 +4997,23 @@
       <c r="E71" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F71" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="10"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N71" s="10"/>
+      <c r="N71" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O71" s="9"/>
     </row>
     <row r="72" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -4972,14 +5046,18 @@
       <c r="J72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K72" s="39" t="s">
+      <c r="K72" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M72" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N72" s="10"/>
+      <c r="N72" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O72" s="9"/>
     </row>
     <row r="73" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -5012,14 +5090,18 @@
       <c r="J73" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K73" s="39" t="s">
+      <c r="K73" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M73" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N73" s="10"/>
+      <c r="N73" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O73" s="9"/>
     </row>
     <row r="74" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -5052,14 +5134,18 @@
       <c r="J74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K74" s="39" t="s">
+      <c r="K74" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M74" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N74" s="10"/>
+      <c r="N74" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O74" s="9"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -5092,14 +5178,18 @@
       <c r="J75" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K75" s="40" t="s">
+      <c r="K75" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M75" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N75" s="10"/>
+      <c r="N75" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O75" s="9"/>
     </row>
     <row r="76" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
@@ -5170,14 +5260,18 @@
       <c r="J77" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K77" s="40" t="s">
+      <c r="K77" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M77" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N77" s="10"/>
+      <c r="N77" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O77" s="9"/>
     </row>
     <row r="78" spans="1:15" ht="36" x14ac:dyDescent="0.2">
@@ -5208,14 +5302,18 @@
         <v>122</v>
       </c>
       <c r="J78" s="4"/>
-      <c r="K78" s="41" t="s">
+      <c r="K78" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="L78" s="10"/>
+      <c r="L78" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M78" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N78" s="10"/>
+      <c r="N78" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O78" s="9"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -5246,14 +5344,18 @@
         <v>21</v>
       </c>
       <c r="J79" s="4"/>
-      <c r="K79" s="41" t="s">
+      <c r="K79" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="L79" s="10"/>
+      <c r="L79" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M79" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N79" s="10"/>
+      <c r="N79" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O79" s="9"/>
     </row>
     <row r="80" spans="1:15" ht="108" x14ac:dyDescent="0.2">
@@ -5284,14 +5386,18 @@
         <v>122</v>
       </c>
       <c r="J80" s="4"/>
-      <c r="K80" s="42" t="s">
+      <c r="K80" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L80" s="10"/>
+      <c r="L80" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M80" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N80" s="10"/>
+      <c r="N80" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O80" s="9"/>
     </row>
     <row r="81" spans="1:15" ht="36" x14ac:dyDescent="0.2">
@@ -5322,14 +5428,18 @@
         <v>122</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81" s="42" t="s">
+      <c r="K81" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L81" s="10"/>
+      <c r="L81" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M81" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N81" s="10"/>
+      <c r="N81" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O81" s="9"/>
     </row>
     <row r="82" spans="1:15" ht="24" x14ac:dyDescent="0.2">
@@ -5360,11 +5470,15 @@
         <v>122</v>
       </c>
       <c r="J82" s="4"/>
-      <c r="L82" s="10"/>
+      <c r="L82" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M82" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N82" s="10"/>
+      <c r="N82" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O82" s="9"/>
     </row>
     <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.2">
@@ -5395,14 +5509,18 @@
         <v>21</v>
       </c>
       <c r="J83" s="4"/>
-      <c r="K83" s="42" t="s">
+      <c r="K83" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="L83" s="10"/>
+      <c r="L83" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M83" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N83" s="10"/>
+      <c r="N83" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O83" s="9"/>
     </row>
     <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.2">
@@ -5433,14 +5551,18 @@
         <v>122</v>
       </c>
       <c r="J84" s="4"/>
-      <c r="K84" s="42" t="s">
+      <c r="K84" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M84" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N84" s="10"/>
+      <c r="N84" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O84" s="9"/>
     </row>
     <row r="85" spans="1:15" ht="36" x14ac:dyDescent="0.2">
@@ -5470,14 +5592,18 @@
         <v>122</v>
       </c>
       <c r="J85" s="4"/>
-      <c r="K85" s="42" t="s">
+      <c r="K85" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="M85" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N85" s="10"/>
+      <c r="N85" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O85" s="9"/>
     </row>
   </sheetData>
@@ -5488,6 +5614,11 @@
         <filter val="N due to UI"/>
         <filter val="TBC"/>
         <filter val="Y for logic, N for UI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="New"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE96B04-63B0-4E42-B7DE-BC70A6AA5CAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAA27E2-91DD-430B-8F7B-EC8946DB6A9F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1520,176 +1520,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,11 +1536,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2119,3492 +2040,3493 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O84" sqref="O84"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="70" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="27.42578125" style="2"/>
+    <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="27.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="42" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="str">
+      <c r="C2" s="5" t="str">
         <f>CONCATENATE(LEFT(A2,4)," ", B2)</f>
         <v>Regi 1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C75" si="0">CONCATENATE(LEFT(A3,4)," ", B3)</f>
         <v>Regi 1.1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="9">
         <v>43253</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>2.1</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 2.1</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="36" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="36" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>3.1</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 3.1</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="24" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="24" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 4</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 4.1</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="60" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 5</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 5.1</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="36">
+      <c r="J11" s="5"/>
+      <c r="K11" s="9">
         <v>43277</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>5.2</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 5.2</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="36">
+      <c r="J12" s="5"/>
+      <c r="K12" s="9">
         <v>43277</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 6</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <f>B13+0.1</f>
         <v>6.1</v>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 6.1</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="9">
         <v>43277</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <f>B14+0.1</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 6.2</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="72" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:15" ht="72" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>7</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 7</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <f>B16+0.1</f>
         <v>7.1</v>
       </c>
-      <c r="C17" s="23" t="str">
+      <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 7.1</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="24">
+      <c r="J17" s="15"/>
+      <c r="K17" s="9">
         <v>43253</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" ht="48" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="48" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>8</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 8</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:15" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <f>B18+0.1</f>
         <v>8.1</v>
       </c>
-      <c r="C19" s="23" t="str">
+      <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 8.1</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <f t="shared" ref="B20:B21" si="1">B19+0.1</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C20" s="23" t="str">
+      <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 8.2</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <f t="shared" si="1"/>
         <v>8.2999999999999989</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 8.3</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <v>9</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="14">
         <v>10</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 10</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="29" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <v>11</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 11</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="29" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="14">
         <v>12</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 12</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="29" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <v>13</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 13</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="29" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>14</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 14</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <v>15</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Auth 15</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="9"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>16</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Auth 16</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="14">
         <f>B29+0.1</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="C30" s="23" t="str">
+      <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.1</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="14">
         <f t="shared" ref="B31:B36" si="2">B30+0.1</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="C31" s="23" t="str">
+      <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.2</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <f t="shared" si="2"/>
         <v>16.300000000000004</v>
       </c>
-      <c r="C32" s="23" t="str">
+      <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.3</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="14">
         <f t="shared" si="2"/>
         <v>16.400000000000006</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.4</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="14">
         <f t="shared" si="2"/>
         <v>16.500000000000007</v>
       </c>
-      <c r="C34" s="23" t="str">
+      <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.5</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <f t="shared" si="2"/>
         <v>16.600000000000009</v>
       </c>
-      <c r="C35" s="23" t="str">
+      <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.6</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <f t="shared" si="2"/>
         <v>16.70000000000001</v>
       </c>
-      <c r="C36" s="23" t="str">
+      <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 16.7</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" ht="24" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>17</v>
       </c>
-      <c r="C37" s="23" t="str">
+      <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Regi 17</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="9"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="18">
         <v>1</v>
       </c>
-      <c r="C38" s="23" t="str">
+      <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 1</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="4" t="str">
+      <c r="F38" s="11" t="str">
         <f>E38</f>
         <v>Fill in all fields correctly</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="30" t="s">
+      <c r="H38" s="19"/>
+      <c r="I38" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="N38" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O38" s="9"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="18">
         <f>B38+0.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C39" s="23" t="str">
+      <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 1.1</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="14" t="s">
+      <c r="H39" s="19"/>
+      <c r="I39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="18">
         <f>B39+0.1</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="C40" s="23" t="str">
+      <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 1.2</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="14" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="10" t="s">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="18">
         <f>B40+0.1</f>
         <v>1.3000000000000003</v>
       </c>
-      <c r="C41" s="23" t="str">
+      <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 1.3</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="14" t="s">
+      <c r="H41" s="21"/>
+      <c r="I41" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="18">
         <f>B41+0.1</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="C42" s="23" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 1.4</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="14" t="s">
+      <c r="H42" s="21"/>
+      <c r="I42" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="10" t="s">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="18">
         <v>2</v>
       </c>
-      <c r="C43" s="23" t="str">
+      <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 2</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="4" t="str">
+      <c r="F43" s="11" t="str">
         <f>E43</f>
         <v>Fill in fields only partially</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="31" t="s">
+      <c r="H43" s="19"/>
+      <c r="I43" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O43" s="9"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="18">
         <f>B43+0.1</f>
         <v>2.1</v>
       </c>
-      <c r="C44" s="23" t="str">
+      <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 2.1</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="14" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="18">
         <f>B44+0.1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C45" s="23" t="str">
+      <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 2.2</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="19"/>
+      <c r="I45" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="18">
         <f>B45+0.1</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="C46" s="23" t="str">
+      <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 2.3</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="19"/>
+      <c r="I46" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="18">
         <v>3</v>
       </c>
-      <c r="C47" s="23" t="str">
+      <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 3</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="6" t="str">
+      <c r="F47" s="19" t="str">
         <f>E47</f>
         <v>Book appointment of the same slot after appointment cancelled</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="31" t="s">
+      <c r="H47" s="19"/>
+      <c r="I47" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O47" s="9"/>
+      <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="18">
         <f>B47+0.1</f>
         <v>3.1</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 3.1</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="84" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="18">
         <v>4</v>
       </c>
-      <c r="C49" s="23" t="str">
+      <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 4</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="6" t="str">
+      <c r="F49" s="19" t="str">
         <f t="shared" ref="F49" si="3">E49</f>
         <v>Attempt to book appointment before/after opening hours</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="31" t="s">
+      <c r="H49" s="21"/>
+      <c r="I49" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N49" s="10" t="s">
+      <c r="N49" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="18">
         <f>B49+0.1</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="C50" s="23" t="str">
+      <c r="C50" s="5" t="str">
         <f t="shared" ref="C50" si="4">CONCATENATE(LEFT(A50,4)," ", B50)</f>
         <v>Appt 4.1</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="14" t="s">
+      <c r="H50" s="21"/>
+      <c r="I50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="18">
         <f>B50+0.1</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="C51" s="23" t="str">
+      <c r="C51" s="5" t="str">
         <f t="shared" ref="C51" si="5">CONCATENATE(LEFT(A51,4)," ", B51)</f>
         <v>Appt 4.2</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="14" t="s">
+      <c r="H51" s="21"/>
+      <c r="I51" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
     </row>
     <row r="52" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="18">
         <v>5</v>
       </c>
-      <c r="C52" s="23" t="str">
+      <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 5</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="4" t="str">
+      <c r="F52" s="11" t="str">
         <f>E52</f>
         <v>Attempt to book a 3hour long treatment 1 hour before closing time</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="17" t="s">
+      <c r="H52" s="19"/>
+      <c r="I52" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N52" s="10" t="s">
+      <c r="N52" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O52" s="9"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="18">
         <v>6</v>
       </c>
-      <c r="C53" s="23" t="str">
+      <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 6</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="4" t="str">
+      <c r="F53" s="11" t="str">
         <f t="shared" ref="F53:F58" si="6">E53</f>
         <v>Fill in appointment 1 for 1 slot and appointment 2 for the same slot (outlet, time, and stylist)</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="31" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="K53" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="M53" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N53" s="10" t="s">
+      <c r="N53" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="18">
         <f>B53+0.1</f>
         <v>6.1</v>
       </c>
-      <c r="C54" s="23" t="str">
+      <c r="C54" s="5" t="str">
         <f t="shared" ref="C54" si="7">CONCATENATE(LEFT(A54,4)," ", B54)</f>
         <v>Appt 6.1</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="14" t="s">
+      <c r="H54" s="21"/>
+      <c r="I54" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="9"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="132" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="18">
         <f>B54+0.1</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="C55" s="23" t="str">
+      <c r="C55" s="5" t="str">
         <f t="shared" ref="C55" si="8">CONCATENATE(LEFT(A55,4)," ", B55)</f>
         <v>Appt 6.2</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="14" t="s">
+      <c r="H55" s="21"/>
+      <c r="I55" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="10" t="s">
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="M55" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N55" s="10" t="s">
+      <c r="N55" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O55" s="9"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="72" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="18">
         <v>7</v>
       </c>
-      <c r="C56" s="23" t="str">
+      <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 7</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="4" t="str">
+      <c r="F56" s="11" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Cancel appointment made </v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="31" t="s">
+      <c r="H56" s="19"/>
+      <c r="I56" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="M56" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O56" s="9"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="18">
         <f>B56+0.1</f>
         <v>7.1</v>
       </c>
-      <c r="C57" s="23" t="str">
+      <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 7.1</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="14" t="s">
+      <c r="H57" s="19"/>
+      <c r="I57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="18">
         <v>8</v>
       </c>
-      <c r="C58" s="23" t="str">
+      <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 8</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="4" t="str">
+      <c r="F58" s="11" t="str">
         <f t="shared" si="6"/>
         <v>From the same IP address, attempt to book 3 appointments within 5min</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="31" t="s">
+      <c r="H58" s="19"/>
+      <c r="I58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M58" s="10" t="s">
+      <c r="M58" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N58" s="10" t="s">
+      <c r="N58" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O58" s="9"/>
+      <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="18">
         <v>9</v>
       </c>
-      <c r="C59" s="23" t="str">
+      <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Appt 9</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="4" t="str">
+      <c r="F59" s="11" t="str">
         <f>E59</f>
         <v>View appointment</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="14" t="s">
+      <c r="H59" s="21"/>
+      <c r="I59" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K59" s="19" t="s">
+      <c r="K59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="9"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="18">
         <f>B59+0.1</f>
         <v>9.1</v>
       </c>
-      <c r="C60" s="23" t="str">
+      <c r="C60" s="5" t="str">
         <f t="shared" ref="C60" si="9">CONCATENATE(LEFT(A60,4)," ", B60)</f>
         <v>Appt 9.1</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="14" t="s">
+      <c r="H60" s="21"/>
+      <c r="I60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="18">
         <f t="shared" ref="B61:B62" si="10">B60+0.1</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="C61" s="23" t="str">
+      <c r="C61" s="5" t="str">
         <f t="shared" ref="C61:C62" si="11">CONCATENATE(LEFT(A61,4)," ", B61)</f>
         <v>Appt 9.2</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="14" t="s">
+      <c r="H61" s="21"/>
+      <c r="I61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="18">
         <f t="shared" si="10"/>
         <v>9.2999999999999989</v>
       </c>
-      <c r="C62" s="23" t="str">
+      <c r="C62" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Appt 9.3</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="14" t="s">
+      <c r="H62" s="21"/>
+      <c r="I62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="18">
         <f t="shared" ref="B63" si="12">B62+0.1</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="C63" s="23" t="str">
+      <c r="C63" s="5" t="str">
         <f t="shared" ref="C63" si="13">CONCATENATE(LEFT(A63,4)," ", B63)</f>
         <v>Appt 9.4</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="14" t="s">
+      <c r="H63" s="21"/>
+      <c r="I63" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="18">
         <f t="shared" ref="B64:B65" si="14">B63+0.1</f>
         <v>9.4999999999999982</v>
       </c>
-      <c r="C64" s="23" t="str">
+      <c r="C64" s="5" t="str">
         <f t="shared" ref="C64:C65" si="15">CONCATENATE(LEFT(A64,4)," ", B64)</f>
         <v>Appt 9.5</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="14" t="s">
+      <c r="H64" s="21"/>
+      <c r="I64" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="18">
         <f t="shared" si="14"/>
         <v>9.5999999999999979</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="5" t="str">
         <f t="shared" si="15"/>
         <v>Appt 9.6</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="14" t="s">
+      <c r="H65" s="21"/>
+      <c r="I65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="6">
         <v>1</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 1</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="32" t="s">
+      <c r="H66" s="11"/>
+      <c r="I66" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N66" s="10" t="s">
+      <c r="N66" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O66" s="9"/>
+      <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="6">
         <v>2</v>
       </c>
-      <c r="C67" s="23" t="str">
+      <c r="C67" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 2</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="32" t="s">
+      <c r="H67" s="11"/>
+      <c r="I67" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K67" s="36" t="s">
+      <c r="K67" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M67" s="10" t="s">
+      <c r="M67" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N67" s="10" t="s">
+      <c r="N67" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O67" s="9"/>
+      <c r="O67" s="5"/>
     </row>
     <row r="68" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="6">
         <v>3</v>
       </c>
-      <c r="C68" s="23" t="str">
+      <c r="C68" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 3</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="32" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M68" s="10" t="s">
+      <c r="M68" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N68" s="10" t="s">
+      <c r="N68" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O68" s="9"/>
+      <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="6">
         <v>4</v>
       </c>
-      <c r="C69" s="23" t="str">
+      <c r="C69" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 4</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="32" t="s">
+      <c r="H69" s="11"/>
+      <c r="I69" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K69" s="36" t="s">
+      <c r="K69" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N69" s="10" t="s">
+      <c r="N69" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O69" s="9"/>
+      <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="6">
         <v>5</v>
       </c>
-      <c r="C70" s="23" t="str">
+      <c r="C70" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 5</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="32" t="s">
+      <c r="H70" s="11"/>
+      <c r="I70" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N70" s="10" t="s">
+      <c r="N70" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O70" s="9"/>
+      <c r="O70" s="5"/>
     </row>
     <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="6">
         <v>6</v>
       </c>
-      <c r="C71" s="23" t="str">
+      <c r="C71" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 6</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="10" t="s">
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N71" s="10" t="s">
+      <c r="N71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O71" s="9"/>
+      <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="6">
         <v>7</v>
       </c>
-      <c r="C72" s="23" t="str">
+      <c r="C72" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 7</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="32" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K72" s="36" t="s">
+      <c r="K72" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M72" s="10" t="s">
+      <c r="M72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N72" s="10" t="s">
+      <c r="N72" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O72" s="9"/>
+      <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="6">
         <v>8</v>
       </c>
-      <c r="C73" s="23" t="str">
+      <c r="C73" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 8</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="32" t="s">
+      <c r="H73" s="11"/>
+      <c r="I73" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K73" s="36" t="s">
+      <c r="K73" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M73" s="10" t="s">
+      <c r="M73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N73" s="10" t="s">
+      <c r="N73" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O73" s="9"/>
+      <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="6">
         <v>9</v>
       </c>
-      <c r="C74" s="23" t="str">
+      <c r="C74" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 9</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="32" t="s">
+      <c r="H74" s="11"/>
+      <c r="I74" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="K74" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M74" s="10" t="s">
+      <c r="M74" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N74" s="10" t="s">
+      <c r="N74" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O74" s="9"/>
+      <c r="O74" s="5"/>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="6">
         <v>10</v>
       </c>
-      <c r="C75" s="23" t="str">
+      <c r="C75" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Memb 10</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="32" t="s">
+      <c r="H75" s="11"/>
+      <c r="I75" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K75" s="37" t="s">
+      <c r="K75" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M75" s="10" t="s">
+      <c r="M75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N75" s="10" t="s">
+      <c r="N75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O75" s="9"/>
+      <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="6">
         <v>11</v>
       </c>
-      <c r="C76" s="23" t="str">
+      <c r="C76" s="5" t="str">
         <f t="shared" ref="C76:C83" si="16">CONCATENATE(LEFT(A76,4)," ", B76)</f>
         <v>Memb 11</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="13" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="9"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="6">
         <v>12</v>
       </c>
-      <c r="C77" s="10" t="str">
+      <c r="C77" s="5" t="str">
         <f t="shared" si="16"/>
         <v>Memb 12</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="32" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K77" s="37" t="s">
+      <c r="K77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="M77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N77" s="10" t="s">
+      <c r="N77" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O77" s="9"/>
+      <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="14">
         <v>1</v>
       </c>
-      <c r="C78" s="4" t="str">
+      <c r="C78" s="11" t="str">
         <f t="shared" si="16"/>
         <v>UT 1</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="13" t="s">
+      <c r="H78" s="11"/>
+      <c r="I78" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="38" t="s">
+      <c r="J78" s="11"/>
+      <c r="K78" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N78" s="10" t="s">
+      <c r="N78" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O78" s="9"/>
+      <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="14">
         <v>2</v>
       </c>
-      <c r="C79" s="4" t="str">
+      <c r="C79" s="11" t="str">
         <f t="shared" si="16"/>
         <v>UT 2</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="13" t="s">
+      <c r="H79" s="11"/>
+      <c r="I79" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="38" t="s">
+      <c r="J79" s="11"/>
+      <c r="K79" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="M79" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N79" s="10" t="s">
+      <c r="N79" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O79" s="9"/>
+      <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" ht="108" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="14">
         <v>3</v>
       </c>
-      <c r="C80" s="4" t="str">
+      <c r="C80" s="11" t="str">
         <f t="shared" si="16"/>
         <v>UT 3</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="13" t="s">
+      <c r="H80" s="11"/>
+      <c r="I80" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="39" t="s">
+      <c r="J80" s="11"/>
+      <c r="K80" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M80" s="10" t="s">
+      <c r="M80" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N80" s="10" t="s">
+      <c r="N80" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O80" s="9"/>
+      <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="14">
         <v>4</v>
       </c>
-      <c r="C81" s="4" t="str">
+      <c r="C81" s="11" t="str">
         <f t="shared" si="16"/>
         <v>UT 4</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="13" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="39" t="s">
+      <c r="J81" s="11"/>
+      <c r="K81" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="M81" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O81" s="9"/>
+      <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="27">
         <v>5</v>
       </c>
-      <c r="C82" s="33" t="str">
+      <c r="C82" s="28" t="str">
         <f t="shared" si="16"/>
         <v>UT 5</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="13" t="s">
+      <c r="H82" s="11"/>
+      <c r="I82" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J82" s="4"/>
-      <c r="L82" s="10" t="s">
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M82" s="10" t="s">
+      <c r="M82" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N82" s="10" t="s">
+      <c r="N82" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O82" s="9"/>
+      <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="29">
         <v>6</v>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="15" t="str">
         <f t="shared" si="16"/>
         <v>UT 6</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="13" t="s">
+      <c r="H83" s="11"/>
+      <c r="I83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="39" t="s">
+      <c r="J83" s="11"/>
+      <c r="K83" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M83" s="10" t="s">
+      <c r="M83" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N83" s="10" t="s">
+      <c r="N83" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O83" s="9"/>
+      <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="29">
         <v>7</v>
       </c>
-      <c r="C84" s="8" t="str">
+      <c r="C84" s="15" t="str">
         <f t="shared" ref="C84" si="17">CONCATENATE(LEFT(A84,4)," ", B84)</f>
         <v>UT 7</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="13" t="s">
+      <c r="H84" s="11"/>
+      <c r="I84" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J84" s="4"/>
-      <c r="K84" s="39" t="s">
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M84" s="10" t="s">
+      <c r="M84" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N84" s="10" t="s">
+      <c r="N84" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O84" s="9"/>
+      <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="14">
         <v>8</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="13" t="s">
+      <c r="H85" s="11"/>
+      <c r="I85" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="39" t="s">
+      <c r="J85" s="11"/>
+      <c r="K85" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M85" s="10" t="s">
+      <c r="M85" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N85" s="10" t="s">
+      <c r="N85" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O85" s="9"/>
+      <c r="O85" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O85" xr:uid="{F6D3D8D6-41A6-4A2F-8439-AF4DD5B21892}">
@@ -5614,11 +5536,6 @@
         <filter val="N due to UI"/>
         <filter val="TBC"/>
         <filter val="Y for logic, N for UI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="New"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAA27E2-91DD-430B-8F7B-EC8946DB6A9F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8787671-287A-499A-9F67-41655DF0133D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="229">
   <si>
     <t>S/N</t>
   </si>
@@ -1397,6 +1397,22 @@
   </si>
   <si>
     <t>Jacky</t>
+  </si>
+  <si>
+    <t>Check database to verify if photo is uploaded. Check with Josh where we need to show display photo.</t>
+  </si>
+  <si>
+    <t>Disabled checking for existing mobile numbers in database. Currently the form will auto populate the current email address and mobile number of the customer. If no changes, SQL query is run but no change in database is made. See updateProfile and updateProfileNoPhoto methods in CustomerDAO.</t>
+  </si>
+  <si>
+    <t>Login page - Changed "Change Password" to "Forget Password?".
+Added "Change Password" option in dropdown menu for customer.</t>
+  </si>
+  <si>
+    <t>No such function implemented</t>
+  </si>
+  <si>
+    <t>Added dummy data for easier visualisation.</t>
   </si>
 </sst>
 </file>
@@ -1599,9 +1615,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1625,6 +1638,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2040,22 +2056,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
@@ -4715,7 +4731,7 @@
         <v>168</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>216</v>
@@ -4723,9 +4739,11 @@
       <c r="N66" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O66" s="5"/>
-    </row>
-    <row r="67" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O66" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>169</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>216</v>
@@ -4767,9 +4785,11 @@
       <c r="N67" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O67" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -4803,7 +4823,7 @@
         <v>168</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>216</v>
@@ -4811,9 +4831,11 @@
       <c r="N68" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O68" s="5"/>
-    </row>
-    <row r="69" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O68" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
@@ -4847,7 +4869,7 @@
         <v>168</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>216</v>
@@ -4855,9 +4877,11 @@
       <c r="N69" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O69" s="5"/>
-    </row>
-    <row r="70" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O69" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
@@ -4891,7 +4915,7 @@
         <v>168</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>216</v>
@@ -4899,7 +4923,9 @@
       <c r="N70" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
@@ -4918,16 +4944,16 @@
       <c r="E71" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="F71" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
       <c r="L71" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>216</v>
@@ -4935,9 +4961,11 @@
       <c r="N71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O71" s="5"/>
-    </row>
-    <row r="72" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O71" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
@@ -4971,7 +4999,7 @@
         <v>176</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>216</v>
@@ -4979,9 +5007,11 @@
       <c r="N72" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O72" s="5"/>
-    </row>
-    <row r="73" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="O72" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
@@ -5015,7 +5045,7 @@
         <v>176</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M73" s="5" t="s">
         <v>216</v>
@@ -5023,7 +5053,9 @@
       <c r="N73" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O73" s="5"/>
+      <c r="O73" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
@@ -5059,7 +5091,7 @@
         <v>168</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>216</v>
@@ -5067,7 +5099,9 @@
       <c r="N74" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O74" s="5"/>
+      <c r="O74" s="5" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
@@ -5103,7 +5137,7 @@
         <v>169</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>216</v>
@@ -5111,7 +5145,9 @@
       <c r="N75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O75" s="5"/>
+      <c r="O75" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="76" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
@@ -5185,7 +5221,7 @@
         <v>169</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>216</v>
@@ -5193,7 +5229,9 @@
       <c r="N77" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O77" s="5"/>
+      <c r="O77" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="36" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
@@ -5223,7 +5261,7 @@
         <v>122</v>
       </c>
       <c r="J78" s="11"/>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>201</v>
       </c>
       <c r="L78" s="5" t="s">
@@ -5265,7 +5303,7 @@
         <v>21</v>
       </c>
       <c r="J79" s="11"/>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="25" t="s">
         <v>202</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -5367,10 +5405,10 @@
       <c r="A82" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="26">
         <v>5</v>
       </c>
-      <c r="C82" s="28" t="str">
+      <c r="C82" s="27" t="str">
         <f t="shared" si="16"/>
         <v>UT 5</v>
       </c>
@@ -5407,7 +5445,7 @@
       <c r="A83" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="28">
         <v>6</v>
       </c>
       <c r="C83" s="15" t="str">
@@ -5449,7 +5487,7 @@
       <c r="A84" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="28">
         <v>7</v>
       </c>
       <c r="C84" s="15" t="str">

--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\Tempest\Documentation\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Documents\fyp\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8787671-287A-499A-9F67-41655DF0133D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF31B8-1004-425B-9C55-0699493A9A4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="230">
   <si>
     <t>S/N</t>
   </si>
@@ -1413,6 +1413,9 @@
   </si>
   <si>
     <t>Added dummy data for easier visualisation.</t>
+  </si>
+  <si>
+    <t>unable to reproduce bug to fixed it</t>
   </si>
 </sst>
 </file>
@@ -2053,33 +2056,33 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="27.3984375" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.69921875" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="70" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="27.42578125" style="16"/>
+    <col min="16" max="16384" width="27.3984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -2256,7 +2259,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2290,7 +2293,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="36" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="24" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -2408,7 +2411,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="60" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="72" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="69" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="48" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="46" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="92" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -3014,7 +3017,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
@@ -3282,7 +3285,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -3355,7 +3358,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3393,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3425,7 +3428,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
@@ -3565,7 +3568,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="24" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -3603,7 +3606,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>139</v>
       </c>
@@ -3648,7 +3651,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>139</v>
       </c>
@@ -3685,7 +3688,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -3728,7 +3731,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="84" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>139</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>139</v>
       </c>
@@ -3808,7 +3811,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="46" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>139</v>
       </c>
@@ -3853,7 +3856,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>139</v>
       </c>
@@ -3888,7 +3891,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>139</v>
       </c>
@@ -3923,7 +3926,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>139</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>139</v>
       </c>
@@ -4003,7 +4006,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>139</v>
       </c>
@@ -4038,7 +4041,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" ht="84" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>139</v>
       </c>
@@ -4083,7 +4086,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>139</v>
       </c>
@@ -4118,7 +4121,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>139</v>
       </c>
@@ -4153,7 +4156,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>139</v>
       </c>
@@ -4198,7 +4201,7 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>139</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>175</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>216</v>
@@ -4243,7 +4246,7 @@
       </c>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4280,7 +4283,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" ht="132" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="126.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>139</v>
       </c>
@@ -4313,7 +4316,7 @@
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>216</v>
@@ -4323,7 +4326,7 @@
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" ht="72" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>139</v>
       </c>
@@ -4368,7 +4371,7 @@
       </c>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>139</v>
       </c>
@@ -4403,7 +4406,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>139</v>
       </c>
@@ -4448,7 +4451,7 @@
       </c>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>139</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -4522,7 +4525,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>139</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>139</v>
       </c>
@@ -4627,7 +4630,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>139</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
@@ -4697,7 +4700,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>72</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>72</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>72</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>72</v>
       </c>
@@ -5187,7 +5190,7 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>72</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>182</v>
       </c>
@@ -5275,7 +5278,7 @@
       </c>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>182</v>
       </c>
@@ -5317,7 +5320,7 @@
       </c>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15" ht="108" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="103.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>182</v>
       </c>
@@ -5359,7 +5362,7 @@
       </c>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>182</v>
       </c>
@@ -5401,7 +5404,7 @@
       </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>182</v>
       </c>
@@ -5441,7 +5444,7 @@
       </c>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15" ht="60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>182</v>
       </c>
@@ -5481,9 +5484,11 @@
       <c r="N83" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O83" s="5"/>
-    </row>
-    <row r="84" spans="1:15" ht="72" x14ac:dyDescent="0.2">
+      <c r="O83" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>182</v>
       </c>
@@ -5525,7 +5530,7 @@
       </c>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>182</v>
       </c>
@@ -5574,6 +5579,11 @@
         <filter val="N due to UI"/>
         <filter val="TBC"/>
         <filter val="Y for logic, N for UI"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Jacky"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5602,19 +5612,19 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Documents\fyp\Tempest\Documentation\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CF31B8-1004-425B-9C55-0699493A9A4D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Testing" sheetId="8" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidated Testing'!$A$1:$O$85</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jia an wong</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1947E7EC-6219-41E9-BA8A-A6F8ACCF98DF}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{FDE5B244-FA71-4D40-A7BE-2048E51F7A2B}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="231">
   <si>
     <t>S/N</t>
   </si>
@@ -1417,11 +1416,14 @@
   <si>
     <t>unable to reproduce bug to fixed it</t>
   </si>
+  <si>
+    <t>Fixed (03/07/18)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1648,7 +1650,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FAA3CB2B-EF63-450D-83BA-827B480A743C}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2052,37 +2054,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE17B3-8D02-4463-83E0-F1DA6B467D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.3984375" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="11.4" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.8984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="70" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="27.3984375" style="16"/>
+    <col min="16" max="16384" width="27.375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -2259,7 +2261,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2293,7 +2295,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -2411,7 +2413,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="57.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="69" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="68.400000000000006" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2757,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -2792,7 +2794,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="46" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="45.6" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="92" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="91.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
@@ -3323,7 +3325,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -3393,7 +3395,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3428,7 +3430,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -3498,7 +3500,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -3533,7 +3535,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
@@ -3568,7 +3570,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -3606,7 +3608,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>139</v>
       </c>
@@ -3651,7 +3653,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="79.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>139</v>
       </c>
@@ -3688,7 +3690,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="79.8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -3731,7 +3733,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="79.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>139</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="79.8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>139</v>
       </c>
@@ -3811,7 +3813,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="46" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>139</v>
       </c>
@@ -3856,7 +3858,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>139</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>139</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>139</v>
       </c>
@@ -3961,7 +3963,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="22.8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>139</v>
       </c>
@@ -4006,7 +4008,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="102.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>139</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" ht="80.5" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="91.2" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>139</v>
       </c>
@@ -4086,7 +4088,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>139</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>139</v>
       </c>
@@ -4156,7 +4158,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>139</v>
       </c>
@@ -4201,7 +4203,7 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>139</v>
       </c>
@@ -4246,7 +4248,7 @@
       </c>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4283,7 +4285,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" ht="126.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="125.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>139</v>
       </c>
@@ -4326,7 +4328,7 @@
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="68.400000000000006" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>139</v>
       </c>
@@ -4371,7 +4373,7 @@
       </c>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="102.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>139</v>
       </c>
@@ -4406,7 +4408,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>139</v>
       </c>
@@ -4451,7 +4453,7 @@
       </c>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>139</v>
       </c>
@@ -4490,7 +4492,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -4525,7 +4527,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
@@ -4560,7 +4562,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>139</v>
       </c>
@@ -4595,7 +4597,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>139</v>
       </c>
@@ -4630,7 +4632,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>139</v>
       </c>
@@ -4665,7 +4667,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
@@ -4700,7 +4702,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>72</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -4838,7 +4840,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>72</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>72</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>72</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>182</v>
       </c>
@@ -5278,7 +5280,7 @@
       </c>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>182</v>
       </c>
@@ -5320,7 +5322,7 @@
       </c>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15" ht="103.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="102.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>182</v>
       </c>
@@ -5360,9 +5362,11 @@
       <c r="N80" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O80" s="5"/>
-    </row>
-    <row r="81" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>182</v>
       </c>
@@ -5404,7 +5408,7 @@
       </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="100.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>182</v>
       </c>
@@ -5442,9 +5446,11 @@
       <c r="N82" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O82" s="5"/>
-    </row>
-    <row r="83" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="O82" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>182</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>182</v>
       </c>
@@ -5528,9 +5534,11 @@
       <c r="N84" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O84" s="5"/>
-    </row>
-    <row r="85" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>182</v>
       </c>
@@ -5569,10 +5577,12 @@
       <c r="N85" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O85" s="5"/>
+      <c r="O85" s="5" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O85" xr:uid="{F6D3D8D6-41A6-4A2F-8439-AF4DD5B21892}">
+  <autoFilter ref="A1:O85">
     <filterColumn colId="8">
       <filters blank="1">
         <filter val="N"/>
@@ -5583,7 +5593,7 @@
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="Jacky"/>
+        <filter val="Josh"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5591,10 +5601,10 @@
     <mergeCell ref="F71:K71"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L85" xr:uid="{12041A4A-7C1B-4D3B-8357-6131D3467BFC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L85">
       <formula1>"New,Open,Fixed,Not Fixed,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N85" xr:uid="{93387B9C-1490-4566-8734-BB42A99F62DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N85">
       <formula1>"Chantalle,Kimberly,Jacky,Jiaan,Josh,Wei Xuan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5605,26 +5615,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC384CB8-D43E-414A-B1E2-1867F5C8C36F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 28 June 2018.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tempest\Documentation\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Desktop\SMU\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6FAF8-5EDE-4F07-A194-A6E01179FBBD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Testing" sheetId="8" r:id="rId1"/>
-    <sheet name="Screenshot" sheetId="9" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="10" r:id="rId2"/>
+    <sheet name="Screenshot" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidated Testing'!$A$1:$O$85</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jia an wong</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="246">
   <si>
     <t>S/N</t>
   </si>
@@ -1374,9 +1381,6 @@
     <t>Bug Assigned To:</t>
   </si>
   <si>
-    <t>Jiaan</t>
-  </si>
-  <si>
     <t>Wei Xuan</t>
   </si>
   <si>
@@ -1418,12 +1422,60 @@
   </si>
   <si>
     <t>Fixed (03/07/18)</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Total number of test cases</t>
+  </si>
+  <si>
+    <t>Total number of bugs</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Bug severity</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Total number of deliverables</t>
+  </si>
+  <si>
+    <t>Deliverables completed</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Coding/Debugging</t>
+  </si>
+  <si>
+    <t>Wiki (constant at 3)</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1542,11 +1594,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1647,10 +1700,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1665,7 +1729,1054 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Task Metrics </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Metrics!$A$35:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Metrics!$D$35:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EC3-441B-A87E-6B82C0B8F6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1720908351"/>
+        <c:axId val="1783496703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1720908351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="0070C0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Iteration </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45090398075240595"/>
+              <c:y val="0.89814814814814814"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                  <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783496703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1783496703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="0070C0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Task completion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                  <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720908351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F785C4-EA81-46FC-999C-1B38678C63B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2054,37 +3165,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="11.4" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="27.3984375" defaultRowHeight="11.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.69921875" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="70" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="27.375" style="16"/>
+    <col min="16" max="16384" width="27.3984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -2131,7 +3242,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2155,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -2168,16 +3279,16 @@
         <v>210</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="10" customFormat="1" ht="46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2201,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -2214,16 +3325,16 @@
         <v>210</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -2261,7 +3372,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2295,7 +3406,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="34.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2332,16 +3443,16 @@
         <v>211</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -2375,7 +3486,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -2413,7 +3524,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2447,7 +3558,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="57.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -2484,16 +3595,16 @@
         <v>211</v>
       </c>
       <c r="M10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -2517,7 +3628,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="5"/>
@@ -2528,16 +3639,16 @@
         <v>211</v>
       </c>
       <c r="M11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -2561,7 +3672,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="5"/>
@@ -2572,16 +3683,16 @@
         <v>211</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -2618,16 +3729,16 @@
         <v>210</v>
       </c>
       <c r="M13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="57.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -2652,7 +3763,7 @@
         <v>82</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -2665,16 +3776,16 @@
         <v>210</v>
       </c>
       <c r="M14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" ht="57" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="57.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -2699,7 +3810,7 @@
         <v>82</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="5" t="s">
@@ -2710,16 +3821,16 @@
         <v>210</v>
       </c>
       <c r="M15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="68.400000000000006" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2757,7 +3868,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -2794,7 +3905,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="45.6" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -2831,16 +3942,16 @@
         <v>210</v>
       </c>
       <c r="M18" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="91.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="92" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -2865,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -2878,16 +3989,16 @@
         <v>210</v>
       </c>
       <c r="M19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -2912,7 +4023,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -2925,16 +4036,16 @@
         <v>210</v>
       </c>
       <c r="M20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2959,7 +4070,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2972,16 +4083,16 @@
         <v>210</v>
       </c>
       <c r="M21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -3019,7 +4130,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -3056,16 +4167,16 @@
         <v>211</v>
       </c>
       <c r="M23" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O23" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -3102,16 +4213,16 @@
         <v>211</v>
       </c>
       <c r="M24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O24" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -3148,16 +4259,16 @@
         <v>211</v>
       </c>
       <c r="M25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O25" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -3194,16 +4305,16 @@
         <v>211</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O26" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -3240,16 +4351,16 @@
         <v>211</v>
       </c>
       <c r="M27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O27" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
@@ -3287,7 +4398,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>119</v>
       </c>
@@ -3325,7 +4436,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -3360,7 +4471,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -3395,7 +4506,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -3430,7 +4541,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -3465,7 +4576,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -3500,7 +4611,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>71</v>
       </c>
@@ -3535,7 +4646,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" ht="34.200000000000003" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="34.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
@@ -3570,7 +4681,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="34.200000000000003" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -3608,7 +4719,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>139</v>
       </c>
@@ -3643,17 +4754,17 @@
         <v>171</v>
       </c>
       <c r="L38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="79.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>139</v>
       </c>
@@ -3690,7 +4801,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="79.8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="80.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -3715,7 +4826,7 @@
         <v>32</v>
       </c>
       <c r="H40" s="21"/>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="23" t="s">
         <v>122</v>
       </c>
       <c r="J40" s="11" t="s">
@@ -3723,17 +4834,17 @@
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" ht="79.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="80.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>139</v>
       </c>
@@ -3770,7 +4881,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="79.8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="80.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>139</v>
       </c>
@@ -3795,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="H42" s="21"/>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="23" t="s">
         <v>122</v>
       </c>
       <c r="J42" s="11" t="s">
@@ -3803,17 +4914,17 @@
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>139</v>
       </c>
@@ -3848,17 +4959,17 @@
         <v>171</v>
       </c>
       <c r="L43" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>139</v>
       </c>
@@ -3893,7 +5004,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>139</v>
       </c>
@@ -3928,7 +5039,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>139</v>
       </c>
@@ -3963,7 +5074,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" ht="22.8" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>139</v>
       </c>
@@ -3998,17 +5109,17 @@
         <v>171</v>
       </c>
       <c r="L47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="102.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>139</v>
       </c>
@@ -4043,7 +5154,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" ht="91.2" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="80.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>139</v>
       </c>
@@ -4078,17 +5189,17 @@
         <v>171</v>
       </c>
       <c r="L49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>139</v>
       </c>
@@ -4123,7 +5234,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="68.400000000000006" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>139</v>
       </c>
@@ -4158,7 +5269,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>139</v>
       </c>
@@ -4193,17 +5304,17 @@
         <v>174</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15" ht="57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>139</v>
       </c>
@@ -4241,14 +5352,14 @@
         <v>211</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>139</v>
       </c>
@@ -4285,7 +5396,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" ht="125.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="126.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>139</v>
       </c>
@@ -4310,7 +5421,7 @@
         <v>154</v>
       </c>
       <c r="H55" s="21"/>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="20" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="11" t="s">
@@ -4321,14 +5432,14 @@
         <v>211</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" ht="68.400000000000006" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="69" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>139</v>
       </c>
@@ -4363,17 +5474,17 @@
         <v>171</v>
       </c>
       <c r="L56" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" ht="102.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="103.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>139</v>
       </c>
@@ -4408,7 +5519,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>139</v>
       </c>
@@ -4443,17 +5554,17 @@
         <v>170</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>139</v>
       </c>
@@ -4492,7 +5603,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -4527,7 +5638,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
@@ -4562,7 +5673,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>139</v>
       </c>
@@ -4597,7 +5708,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>139</v>
       </c>
@@ -4632,7 +5743,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>139</v>
       </c>
@@ -4667,7 +5778,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="45.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
@@ -4702,7 +5813,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="22.8" hidden="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>72</v>
       </c>
@@ -4739,16 +5850,16 @@
         <v>211</v>
       </c>
       <c r="M66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N66" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O66" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>72</v>
       </c>
@@ -4785,16 +5896,16 @@
         <v>211</v>
       </c>
       <c r="M67" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N67" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O67" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -4831,16 +5942,16 @@
         <v>211</v>
       </c>
       <c r="M68" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N68" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O68" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
@@ -4877,16 +5988,16 @@
         <v>211</v>
       </c>
       <c r="M69" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N69" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N69" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O69" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>72</v>
       </c>
@@ -4923,16 +6034,16 @@
         <v>211</v>
       </c>
       <c r="M70" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N70" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O70" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>72</v>
       </c>
@@ -4961,16 +6072,16 @@
         <v>211</v>
       </c>
       <c r="M71" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N71" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O71" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
@@ -5007,16 +6118,16 @@
         <v>211</v>
       </c>
       <c r="M72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N72" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O72" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="45.6" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="46" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
@@ -5053,16 +6164,16 @@
         <v>211</v>
       </c>
       <c r="M73" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O73" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
@@ -5099,16 +6210,16 @@
         <v>211</v>
       </c>
       <c r="M74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N74" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N74" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O74" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>72</v>
       </c>
@@ -5145,16 +6256,16 @@
         <v>210</v>
       </c>
       <c r="M75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N75" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O75" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>72</v>
       </c>
@@ -5192,7 +6303,7 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15" ht="22.8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>72</v>
       </c>
@@ -5229,16 +6340,16 @@
         <v>210</v>
       </c>
       <c r="M77" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="O77" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="34.200000000000003" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>182</v>
       </c>
@@ -5262,7 +6373,7 @@
         <v>185</v>
       </c>
       <c r="H78" s="11"/>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J78" s="11"/>
@@ -5270,17 +6381,17 @@
         <v>201</v>
       </c>
       <c r="L78" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>182</v>
       </c>
@@ -5304,7 +6415,7 @@
         <v>191</v>
       </c>
       <c r="H79" s="11"/>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J79" s="11"/>
@@ -5312,17 +6423,17 @@
         <v>202</v>
       </c>
       <c r="L79" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M79" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15" ht="102.6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="103.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>182</v>
       </c>
@@ -5346,7 +6457,7 @@
         <v>186</v>
       </c>
       <c r="H80" s="11"/>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J80" s="11"/>
@@ -5354,19 +6465,19 @@
         <v>203</v>
       </c>
       <c r="L80" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N80" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O80" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>182</v>
       </c>
@@ -5390,7 +6501,7 @@
         <v>189</v>
       </c>
       <c r="H81" s="11"/>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J81" s="11"/>
@@ -5398,17 +6509,17 @@
         <v>203</v>
       </c>
       <c r="L81" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N81" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" ht="100.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="100.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>182</v>
       </c>
@@ -5432,25 +6543,25 @@
         <v>193</v>
       </c>
       <c r="H82" s="11"/>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N82" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O82" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="57" hidden="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>182</v>
       </c>
@@ -5474,7 +6585,7 @@
         <v>195</v>
       </c>
       <c r="H83" s="11"/>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J83" s="11"/>
@@ -5482,19 +6593,19 @@
         <v>202</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="68.400000000000006" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="69" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>182</v>
       </c>
@@ -5518,7 +6629,7 @@
         <v>197</v>
       </c>
       <c r="H84" s="11"/>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J84" s="11"/>
@@ -5526,19 +6637,19 @@
         <v>203</v>
       </c>
       <c r="L84" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N84" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O84" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="76.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>182</v>
       </c>
@@ -5561,7 +6672,7 @@
         <v>200</v>
       </c>
       <c r="H85" s="11"/>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="24" t="s">
         <v>122</v>
       </c>
       <c r="J85" s="11"/>
@@ -5569,20 +6680,20 @@
         <v>203</v>
       </c>
       <c r="L85" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N85" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O85" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O85">
+  <autoFilter ref="A1:O85" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="8">
       <filters blank="1">
         <filter val="N"/>
@@ -5591,20 +6702,15 @@
         <filter val="Y for logic, N for UI"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Josh"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F71:K71"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L85" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New,Open,Fixed,Not Fixed,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N85" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Chantalle,Kimberly,Jacky,Jiaan,Josh,Wei Xuan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5615,26 +6721,1049 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716DAE55-C88E-4B93-B9D9-E0BB9156427A}">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.296875" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>SUM(D10:F10)-C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>SUM(F35:I36)</f>
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <f>B35-G35-H35</f>
+        <v>13</v>
+      </c>
+      <c r="D35" s="37">
+        <f>C35/B35</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>F35</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>F35</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B63" si="0">SUM(F36:I37)</f>
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f>B36-G36-H36</f>
+        <v>14</v>
+      </c>
+      <c r="D36" s="37">
+        <f t="shared" ref="D36:D45" si="1">C36/B36</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G63" si="2">F36</f>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H63" si="3">F36</f>
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <f>B37-G37</f>
+        <v>16</v>
+      </c>
+      <c r="D37" s="37">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <f>B38</f>
+        <v>21</v>
+      </c>
+      <c r="D38" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <f>B39-3</f>
+        <v>24</v>
+      </c>
+      <c r="D39" s="37">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <f>B40</f>
+        <v>24</v>
+      </c>
+      <c r="D40" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f>B41</f>
+        <v>30</v>
+      </c>
+      <c r="D41" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <f>B42-I42</f>
+        <v>39</v>
+      </c>
+      <c r="D42" s="37">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <f>B43-H43</f>
+        <v>39</v>
+      </c>
+      <c r="D43" s="37">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f>B44</f>
+        <v>30</v>
+      </c>
+      <c r="D44" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <f>B45</f>
+        <v>33</v>
+      </c>
+      <c r="D45" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" ht="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
